--- a/curvas_de_propocao/Polvo_art_prop.xlsx
+++ b/curvas_de_propocao/Polvo_art_prop.xlsx
@@ -650,7 +650,7 @@
         <v>2008</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02481468010075393</v>
+        <v>0.02444106600885599</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>2009</v>
       </c>
       <c r="B28" t="n">
-        <v>0.004829535357666407</v>
+        <v>0.004654324827459477</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>2010</v>
       </c>
       <c r="B29" t="n">
-        <v>0.002506621254958082</v>
+        <v>0.002334411573385067</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>2011</v>
       </c>
       <c r="B30" t="n">
-        <v>0.003088989441930619</v>
+        <v>0.002791612427024232</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>2012</v>
       </c>
       <c r="B31" t="n">
-        <v>0.007640440688796934</v>
+        <v>0.006701467639291572</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>2013</v>
       </c>
       <c r="B32" t="n">
-        <v>0.008625612976580708</v>
+        <v>0.007321896427523279</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>2014</v>
       </c>
       <c r="B33" t="n">
-        <v>0.002334470627487613</v>
+        <v>0.001922854039992986</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>2015</v>
       </c>
       <c r="B34" t="n">
-        <v>4.775712888245287e-06</v>
+        <v>3.825278803031412e-06</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>2017</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02310003917170263</v>
+        <v>0.01753170826838441</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>2018</v>
       </c>
       <c r="B36" t="n">
-        <v>0.05652208215059121</v>
+        <v>0.04171906102775254</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>2019</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0490210445549744</v>
+        <v>0.03523324736829292</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>2020</v>
       </c>
       <c r="B38" t="n">
-        <v>0.04314006135193273</v>
+        <v>0.03024160850563796</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>2021</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01958518820836438</v>
+        <v>0.01341055550586236</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>2022</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02216777753177774</v>
+        <v>0.01484681124467792</v>
       </c>
     </row>
   </sheetData>

--- a/curvas_de_propocao/Polvo_art_prop.xlsx
+++ b/curvas_de_propocao/Polvo_art_prop.xlsx
@@ -650,7 +650,7 @@
         <v>2008</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02444106600885599</v>
+        <v>0.02234090472548139</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>2009</v>
       </c>
       <c r="B28" t="n">
-        <v>0.004654324827459477</v>
+        <v>0.004253600138740473</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>2010</v>
       </c>
       <c r="B29" t="n">
-        <v>0.002334411573385067</v>
+        <v>0.002165175917225299</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>2011</v>
       </c>
       <c r="B30" t="n">
-        <v>0.002791612427024232</v>
+        <v>0.002621264618423323</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>2012</v>
       </c>
       <c r="B31" t="n">
-        <v>0.006701467639291572</v>
+        <v>0.006381717507193799</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>2013</v>
       </c>
       <c r="B32" t="n">
-        <v>0.007321896427523279</v>
+        <v>0.007100207092019365</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>2014</v>
       </c>
       <c r="B33" t="n">
-        <v>0.001922854039992986</v>
+        <v>0.001895425899888059</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>2015</v>
       </c>
       <c r="B34" t="n">
-        <v>3.825278803031412e-06</v>
+        <v>3.827686362874433e-06</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>2017</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01753170826838441</v>
+        <v>0.01810400632449233</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>2018</v>
       </c>
       <c r="B36" t="n">
-        <v>0.04171906102775254</v>
+        <v>0.04384259498050536</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>2019</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03523324736829292</v>
+        <v>0.03761857236292308</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>2020</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03024160850563796</v>
+        <v>0.03276989811149535</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>2021</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01341055550586236</v>
+        <v>0.01473490827385581</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>2022</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01484681124467792</v>
+        <v>0.0165264000995432</v>
       </c>
     </row>
   </sheetData>
